--- a/Guatemala/CENSO 2018/Cuadro A 13.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A 13.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Compartida_DCMKH\Tablas de Salida Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE2FB0-89A5-4385-93EB-7F4C9DBCD7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A13_1!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">A13_2!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="394">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1145,12 +1155,78 @@
   </si>
   <si>
     <t>Quesada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pob&gt;15-EcoAct: </t>
+  </si>
+  <si>
+    <t>Desocupada-Cesante</t>
+  </si>
+  <si>
+    <t>Desocupada-Aspirante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pob&gt;15-EcoInact: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pob&gt;15-LugTrab: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pob&gt;15-EcoAct: Total </t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoAct: Ocupada</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoAct: Desocupada-Cesante</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoAct: Desocupada-Aspirante</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Total</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Únicamente estudió</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Rentista o jubilado</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Quehaceres del hogar</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Cuidado de personas</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Cargo comunitario</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: Otra</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-EcoInact: No declarado</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-LugTrab: En el mismo municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pob&gt;15-LugTrab: En otro municipio </t>
+  </si>
+  <si>
+    <t>Pob&gt;15-LugTrab: En otro país</t>
+  </si>
+  <si>
+    <t>Pob&gt;15-LugTrab: No declarado</t>
+  </si>
+  <si>
+    <t>Código2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
   </numFmts>
@@ -1441,7 +1517,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1505,26 +1581,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,6 +1591,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,15 +1638,94 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1595,7 +1734,601 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1606,6 +2339,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E26A1000-727F-40AF-A7BA-B0BBD449044F}" name="Pob_Econ_Act_Inac" displayName="Pob_Econ_Act_Inac" ref="A8:U348" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="23" headerRowCellStyle="Neutral">
+  <autoFilter ref="A8:U348" xr:uid="{7CDFB79B-3A70-412F-932F-3097C3D83F66}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{B2202B00-6E2E-4FB8-AD49-49F3AB4C34FE}" name="Código" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{4E1FEF42-096E-4CD0-A8DF-83C6FE1B6F9C}" name="Departamento" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{10675B07-E565-43F3-90EF-60B2323737E1}" name="Código2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{DC1EC921-BADA-4DE9-B561-02C6A4A66501}" name="Municipio" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E782B244-F3B4-4E4E-8671-B45BB2377402}" name="Población de 15 años y más" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{7025750D-CD40-4509-91E6-A5017B423DF8}" name="Pob&gt;15-EcoAct: Total " dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{7BEF0549-EA79-41D7-9F21-865DD52FD0D1}" name="Pob&gt;15-EcoAct: Ocupada" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{64A16D4C-4C52-465A-9D0C-6B4933A0F244}" name="Pob&gt;15-EcoAct: Desocupada-Cesante" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{2A5B1395-26B0-4887-913C-86E65FA7F61B}" name="Pob&gt;15-EcoAct: Desocupada-Aspirante" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{6C0BC5E6-38F2-461B-9128-E7B061B886F7}" name="Pob&gt;15-EcoInact: Total" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{C2D482B8-9AE5-42A0-9C63-CD538D54425D}" name="Pob&gt;15-EcoInact: Únicamente estudió" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{73C88563-BE2C-46CC-B4A1-3B6F60808DC7}" name="Pob&gt;15-EcoInact: Rentista o jubilado" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{B6D52B51-D69E-4D66-A860-9BF69E674B28}" name="Pob&gt;15-EcoInact: Quehaceres del hogar" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{A6394975-058A-47D1-86F1-B0ED647770E4}" name="Pob&gt;15-EcoInact: Cuidado de personas" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{DF6AC289-B237-4FB2-8D72-E9D6C208AA0D}" name="Pob&gt;15-EcoInact: Cargo comunitario" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{7E0C2017-480E-49E8-9222-65B458359762}" name="Pob&gt;15-EcoInact: Otra" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{DD402A4D-2A08-4081-9FBF-C02D57B90B22}" name="Pob&gt;15-EcoInact: No declarado" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{C224711A-7EBE-4F7A-B276-A3F8B6D94125}" name="Pob&gt;15-LugTrab: En el mismo municipio" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{AD736179-3F72-4419-891B-80CB5A1541C6}" name="Pob&gt;15-LugTrab: En otro municipio " dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{BBF46D9F-0EAC-4B01-9D16-7DAB33FADB94}" name="Pob&gt;15-LugTrab: En otro país" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{0A55CA0F-D7D9-4108-89C8-936EE029388E}" name="Pob&gt;15-LugTrab: No declarado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,182 +2633,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5"/>
-    <col min="11" max="11" width="14.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5"/>
-    <col min="13" max="13" width="12.42578125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="5"/>
-    <col min="18" max="18" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="5"/>
+    <col min="11" max="11" width="14.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5"/>
+    <col min="13" max="13" width="12.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="5" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="5"/>
+    <col min="18" max="18" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="5"/>
+    <col min="20" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="51" t="s">
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="51" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="54" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H8" s="37"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2068,7 +2831,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
         <v>25</v>
@@ -2125,8 +2888,8 @@
         <v>388961</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -2185,7 +2948,7 @@
         <v>87114</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -2244,7 +3007,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -2303,7 +3066,7 @@
         <v>10421</v>
       </c>
     </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -2362,7 +3125,7 @@
         <v>13948</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>5</v>
       </c>
@@ -2421,7 +3184,7 @@
         <v>30336</v>
       </c>
     </row>
-    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -2480,7 +3243,7 @@
         <v>8738</v>
       </c>
     </row>
-    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>7</v>
       </c>
@@ -2539,7 +3302,7 @@
         <v>10964</v>
       </c>
     </row>
-    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>8</v>
       </c>
@@ -2598,7 +3361,7 @@
         <v>11454</v>
       </c>
     </row>
-    <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>9</v>
       </c>
@@ -2657,7 +3420,7 @@
         <v>22362</v>
       </c>
     </row>
-    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -2716,7 +3479,7 @@
         <v>12269</v>
       </c>
     </row>
-    <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>11</v>
       </c>
@@ -2775,7 +3538,7 @@
         <v>8723</v>
       </c>
     </row>
-    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>12</v>
       </c>
@@ -2834,7 +3597,7 @@
         <v>30375</v>
       </c>
     </row>
-    <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>13</v>
       </c>
@@ -2893,7 +3656,7 @@
         <v>26031</v>
       </c>
     </row>
-    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>14</v>
       </c>
@@ -2952,7 +3715,7 @@
         <v>23296</v>
       </c>
     </row>
-    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>15</v>
       </c>
@@ -3011,7 +3774,7 @@
         <v>5596</v>
       </c>
     </row>
-    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>16</v>
       </c>
@@ -3070,7 +3833,7 @@
         <v>19804</v>
       </c>
     </row>
-    <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>17</v>
       </c>
@@ -3129,7 +3892,7 @@
         <v>14914</v>
       </c>
     </row>
-    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>18</v>
       </c>
@@ -3188,7 +3951,7 @@
         <v>12441</v>
       </c>
     </row>
-    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>19</v>
       </c>
@@ -3247,7 +4010,7 @@
         <v>9127</v>
       </c>
     </row>
-    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>20</v>
       </c>
@@ -3308,7 +4071,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>21</v>
       </c>
@@ -3369,7 +4132,7 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
     </row>
-    <row r="33" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>22</v>
       </c>
@@ -3441,7 +4204,7 @@
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
@@ -3475,7 +4238,7 @@
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -3483,6 +4246,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
@@ -3499,12 +4268,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="5" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3517,203 +4280,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U349"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:U348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="5" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5"/>
-    <col min="13" max="13" width="14.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="5"/>
-    <col min="15" max="15" width="12.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="5" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="5"/>
-    <col min="20" max="20" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="5" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="36" style="5" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="34" style="5" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="37" style="5" customWidth="1"/>
+    <col min="19" max="19" width="33.109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="28.88671875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="56" t="str">
+        <f>+F2&amp;F3</f>
+        <v xml:space="preserve">Pob&gt;15-EcoAct: Total </v>
+      </c>
+      <c r="G1" s="56" t="str">
+        <f t="shared" ref="G1:U1" si="0">+G2&amp;G3</f>
+        <v>Pob&gt;15-EcoAct: Ocupada</v>
+      </c>
+      <c r="H1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoAct: Desocupada-Cesante</v>
+      </c>
+      <c r="I1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoAct: Desocupada-Aspirante</v>
+      </c>
+      <c r="J1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Total</v>
+      </c>
+      <c r="K1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Únicamente estudió</v>
+      </c>
+      <c r="L1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Rentista o jubilado</v>
+      </c>
+      <c r="M1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Quehaceres del hogar</v>
+      </c>
+      <c r="N1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Cuidado de personas</v>
+      </c>
+      <c r="O1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Cargo comunitario</v>
+      </c>
+      <c r="P1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: Otra</v>
+      </c>
+      <c r="Q1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-EcoInact: No declarado</v>
+      </c>
+      <c r="R1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-LugTrab: En el mismo municipio</v>
+      </c>
+      <c r="S1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Pob&gt;15-LugTrab: En otro municipio </v>
+      </c>
+      <c r="T1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-LugTrab: En otro país</v>
+      </c>
+      <c r="U1" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>Pob&gt;15-LugTrab: No declarado</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="F2" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="U2" s="56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="60"/>
+    </row>
+    <row r="6" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+    </row>
+    <row r="7" spans="1:21" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="C8" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="47"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="50"/>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F8" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="S8" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -3778,7 +4726,7 @@
         <v>28872</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -3843,7 +4791,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -3908,7 +4856,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -3973,7 +4921,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -4038,7 +4986,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -4103,7 +5051,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -4168,7 +5116,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -4233,7 +5181,7 @@
         <v>13413</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -4298,7 +5246,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -4363,7 +5311,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -4428,7 +5376,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -4493,7 +5441,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -4558,7 +5506,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -4623,7 +5571,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -4688,7 +5636,7 @@
         <v>15151</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -4753,7 +5701,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -4818,7 +5766,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>2</v>
       </c>
@@ -4883,7 +5831,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2</v>
       </c>
@@ -4948,7 +5896,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
@@ -5013,7 +5961,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2</v>
       </c>
@@ -5078,7 +6026,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -5143,7 +6091,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>2</v>
       </c>
@@ -5208,7 +6156,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -5273,7 +6221,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -5338,7 +6286,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -5403,7 +6351,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -5468,7 +6416,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3</v>
       </c>
@@ -5533,7 +6481,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3</v>
       </c>
@@ -5598,7 +6546,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>3</v>
       </c>
@@ -5663,7 +6611,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3</v>
       </c>
@@ -5728,7 +6676,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -5793,7 +6741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -5858,7 +6806,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3</v>
       </c>
@@ -5923,7 +6871,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3</v>
       </c>
@@ -5988,7 +6936,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>3</v>
       </c>
@@ -6053,7 +7001,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>3</v>
       </c>
@@ -6118,7 +7066,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>3</v>
       </c>
@@ -6183,7 +7131,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>3</v>
       </c>
@@ -6248,7 +7196,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>3</v>
       </c>
@@ -6313,7 +7261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>3</v>
       </c>
@@ -6378,7 +7326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>4</v>
       </c>
@@ -6443,7 +7391,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>4</v>
       </c>
@@ -6508,7 +7456,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>4</v>
       </c>
@@ -6573,7 +7521,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>4</v>
       </c>
@@ -6638,7 +7586,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>4</v>
       </c>
@@ -6703,7 +7651,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>4</v>
       </c>
@@ -6768,7 +7716,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>4</v>
       </c>
@@ -6833,7 +7781,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>4</v>
       </c>
@@ -6898,7 +7846,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>4</v>
       </c>
@@ -6963,7 +7911,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -7028,7 +7976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>4</v>
       </c>
@@ -7093,7 +8041,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>4</v>
       </c>
@@ -7158,7 +8106,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>4</v>
       </c>
@@ -7223,7 +8171,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>4</v>
       </c>
@@ -7288,7 +8236,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>4</v>
       </c>
@@ -7353,7 +8301,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>4</v>
       </c>
@@ -7418,7 +8366,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>5</v>
       </c>
@@ -7483,7 +8431,7 @@
         <v>8219</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>5</v>
       </c>
@@ -7548,7 +8496,7 @@
         <v>4678</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>5</v>
       </c>
@@ -7613,7 +8561,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>5</v>
       </c>
@@ -7678,7 +8626,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>5</v>
       </c>
@@ -7743,7 +8691,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>5</v>
       </c>
@@ -7808,7 +8756,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>5</v>
       </c>
@@ -7873,7 +8821,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>5</v>
       </c>
@@ -7938,7 +8886,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -8003,7 +8951,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>5</v>
       </c>
@@ -8068,7 +9016,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>5</v>
       </c>
@@ -8133,7 +9081,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>5</v>
       </c>
@@ -8198,7 +9146,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>5</v>
       </c>
@@ -8263,7 +9211,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>5</v>
       </c>
@@ -8328,7 +9276,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>6</v>
       </c>
@@ -8393,7 +9341,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>6</v>
       </c>
@@ -8458,7 +9406,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>6</v>
       </c>
@@ -8523,7 +9471,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>6</v>
       </c>
@@ -8588,7 +9536,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>6</v>
       </c>
@@ -8653,7 +9601,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>6</v>
       </c>
@@ -8718,7 +9666,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>6</v>
       </c>
@@ -8783,7 +9731,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>6</v>
       </c>
@@ -8848,7 +9796,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>6</v>
       </c>
@@ -8913,7 +9861,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>6</v>
       </c>
@@ -8978,7 +9926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>6</v>
       </c>
@@ -9043,7 +9991,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>6</v>
       </c>
@@ -9108,7 +10056,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>6</v>
       </c>
@@ -9173,7 +10121,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>6</v>
       </c>
@@ -9238,7 +10186,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>7</v>
       </c>
@@ -9303,7 +10251,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>7</v>
       </c>
@@ -9368,7 +10316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>7</v>
       </c>
@@ -9433,7 +10381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>7</v>
       </c>
@@ -9498,7 +10446,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>7</v>
       </c>
@@ -9563,7 +10511,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>7</v>
       </c>
@@ -9628,7 +10576,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>7</v>
       </c>
@@ -9693,7 +10641,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>7</v>
       </c>
@@ -9758,7 +10706,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>7</v>
       </c>
@@ -9823,7 +10771,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>7</v>
       </c>
@@ -9888,7 +10836,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>7</v>
       </c>
@@ -9953,7 +10901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>7</v>
       </c>
@@ -10018,7 +10966,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>7</v>
       </c>
@@ -10083,7 +11031,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>7</v>
       </c>
@@ -10148,7 +11096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>7</v>
       </c>
@@ -10213,7 +11161,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>7</v>
       </c>
@@ -10278,7 +11226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>7</v>
       </c>
@@ -10343,7 +11291,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>7</v>
       </c>
@@ -10408,7 +11356,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>7</v>
       </c>
@@ -10473,7 +11421,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>8</v>
       </c>
@@ -10538,7 +11486,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>8</v>
       </c>
@@ -10603,7 +11551,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>8</v>
       </c>
@@ -10668,7 +11616,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>8</v>
       </c>
@@ -10733,7 +11681,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>8</v>
       </c>
@@ -10798,7 +11746,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>8</v>
       </c>
@@ -10863,7 +11811,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>8</v>
       </c>
@@ -10928,7 +11876,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>8</v>
       </c>
@@ -10993,7 +11941,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>9</v>
       </c>
@@ -11058,7 +12006,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>9</v>
       </c>
@@ -11123,7 +12071,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>9</v>
       </c>
@@ -11188,7 +12136,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>9</v>
       </c>
@@ -11253,7 +12201,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>9</v>
       </c>
@@ -11318,7 +12266,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>9</v>
       </c>
@@ -11383,7 +12331,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>9</v>
       </c>
@@ -11448,7 +12396,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>9</v>
       </c>
@@ -11513,7 +12461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>9</v>
       </c>
@@ -11578,7 +12526,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>9</v>
       </c>
@@ -11643,7 +12591,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>9</v>
       </c>
@@ -11708,7 +12656,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>9</v>
       </c>
@@ -11773,7 +12721,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>9</v>
       </c>
@@ -11838,7 +12786,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>9</v>
       </c>
@@ -11903,7 +12851,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>9</v>
       </c>
@@ -11968,7 +12916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>9</v>
       </c>
@@ -12033,7 +12981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>9</v>
       </c>
@@ -12098,7 +13046,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>9</v>
       </c>
@@ -12163,7 +13111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>9</v>
       </c>
@@ -12228,7 +13176,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>9</v>
       </c>
@@ -12293,7 +13241,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>9</v>
       </c>
@@ -12358,7 +13306,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>9</v>
       </c>
@@ -12423,7 +13371,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>9</v>
       </c>
@@ -12488,7 +13436,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>9</v>
       </c>
@@ -12553,7 +13501,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>10</v>
       </c>
@@ -12618,7 +13566,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>10</v>
       </c>
@@ -12683,7 +13631,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>10</v>
       </c>
@@ -12748,7 +13696,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>10</v>
       </c>
@@ -12813,7 +13761,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>10</v>
       </c>
@@ -12878,7 +13826,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>10</v>
       </c>
@@ -12943,7 +13891,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>10</v>
       </c>
@@ -13008,7 +13956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>10</v>
       </c>
@@ -13073,7 +14021,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>10</v>
       </c>
@@ -13138,7 +14086,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>10</v>
       </c>
@@ -13203,7 +14151,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>10</v>
       </c>
@@ -13268,7 +14216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>10</v>
       </c>
@@ -13333,7 +14281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>10</v>
       </c>
@@ -13398,7 +14346,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>10</v>
       </c>
@@ -13463,7 +14411,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>10</v>
       </c>
@@ -13528,7 +14476,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>10</v>
       </c>
@@ -13593,7 +14541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>10</v>
       </c>
@@ -13658,7 +14606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>10</v>
       </c>
@@ -13723,7 +14671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>10</v>
       </c>
@@ -13788,7 +14736,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>10</v>
       </c>
@@ -13853,7 +14801,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>10</v>
       </c>
@@ -13918,7 +14866,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>11</v>
       </c>
@@ -13983,7 +14931,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>11</v>
       </c>
@@ -14048,7 +14996,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>11</v>
       </c>
@@ -14113,7 +15061,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>11</v>
       </c>
@@ -14178,7 +15126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>11</v>
       </c>
@@ -14243,7 +15191,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>11</v>
       </c>
@@ -14308,7 +15256,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>11</v>
       </c>
@@ -14373,7 +15321,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>11</v>
       </c>
@@ -14438,7 +15386,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>11</v>
       </c>
@@ -14503,7 +15451,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>12</v>
       </c>
@@ -14568,7 +15516,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>12</v>
       </c>
@@ -14633,7 +15581,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>12</v>
       </c>
@@ -14698,7 +15646,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>12</v>
       </c>
@@ -14763,7 +15711,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>12</v>
       </c>
@@ -14828,7 +15776,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>12</v>
       </c>
@@ -14893,7 +15841,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>12</v>
       </c>
@@ -14958,7 +15906,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>12</v>
       </c>
@@ -15023,7 +15971,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>12</v>
       </c>
@@ -15088,7 +16036,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>12</v>
       </c>
@@ -15153,7 +16101,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>12</v>
       </c>
@@ -15218,7 +16166,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>12</v>
       </c>
@@ -15283,7 +16231,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>12</v>
       </c>
@@ -15348,7 +16296,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>12</v>
       </c>
@@ -15413,7 +16361,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>12</v>
       </c>
@@ -15478,7 +16426,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>12</v>
       </c>
@@ -15543,7 +16491,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>12</v>
       </c>
@@ -15608,7 +16556,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>12</v>
       </c>
@@ -15673,7 +16621,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>12</v>
       </c>
@@ -15738,7 +16686,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>12</v>
       </c>
@@ -15803,7 +16751,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>12</v>
       </c>
@@ -15868,7 +16816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>12</v>
       </c>
@@ -15933,7 +16881,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>12</v>
       </c>
@@ -15998,7 +16946,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>12</v>
       </c>
@@ -16063,7 +17011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>12</v>
       </c>
@@ -16128,7 +17076,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>12</v>
       </c>
@@ -16193,7 +17141,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>12</v>
       </c>
@@ -16258,7 +17206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>12</v>
       </c>
@@ -16323,7 +17271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>12</v>
       </c>
@@ -16388,7 +17336,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>12</v>
       </c>
@@ -16453,7 +17401,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>13</v>
       </c>
@@ -16518,7 +17466,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>13</v>
       </c>
@@ -16583,7 +17531,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>13</v>
       </c>
@@ -16648,7 +17596,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>13</v>
       </c>
@@ -16713,7 +17661,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>13</v>
       </c>
@@ -16778,7 +17726,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>13</v>
       </c>
@@ -16843,7 +17791,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>13</v>
       </c>
@@ -16908,7 +17856,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>13</v>
       </c>
@@ -16973,7 +17921,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>13</v>
       </c>
@@ -17038,7 +17986,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>13</v>
       </c>
@@ -17103,7 +18051,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>13</v>
       </c>
@@ -17168,7 +18116,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>13</v>
       </c>
@@ -17233,7 +18181,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>13</v>
       </c>
@@ -17298,7 +18246,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>13</v>
       </c>
@@ -17363,7 +18311,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>13</v>
       </c>
@@ -17428,7 +18376,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>13</v>
       </c>
@@ -17493,7 +18441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>13</v>
       </c>
@@ -17558,7 +18506,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>13</v>
       </c>
@@ -17623,7 +18571,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>13</v>
       </c>
@@ -17688,7 +18636,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>13</v>
       </c>
@@ -17753,7 +18701,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>13</v>
       </c>
@@ -17818,7 +18766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>13</v>
       </c>
@@ -17883,7 +18831,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>13</v>
       </c>
@@ -17948,7 +18896,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>13</v>
       </c>
@@ -18013,7 +18961,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>13</v>
       </c>
@@ -18078,7 +19026,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>13</v>
       </c>
@@ -18143,7 +19091,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>13</v>
       </c>
@@ -18208,7 +19156,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>13</v>
       </c>
@@ -18273,7 +19221,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>13</v>
       </c>
@@ -18338,7 +19286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>13</v>
       </c>
@@ -18403,7 +19351,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>13</v>
       </c>
@@ -18468,7 +19416,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>13</v>
       </c>
@@ -18533,7 +19481,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>13</v>
       </c>
@@ -18598,7 +19546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>14</v>
       </c>
@@ -18663,7 +19611,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>14</v>
       </c>
@@ -18728,7 +19676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>14</v>
       </c>
@@ -18793,7 +19741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>14</v>
       </c>
@@ -18858,7 +19806,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>14</v>
       </c>
@@ -18923,7 +19871,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>14</v>
       </c>
@@ -18988,7 +19936,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>14</v>
       </c>
@@ -19053,7 +20001,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>14</v>
       </c>
@@ -19118,7 +20066,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>14</v>
       </c>
@@ -19183,7 +20131,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>14</v>
       </c>
@@ -19248,7 +20196,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>14</v>
       </c>
@@ -19313,7 +20261,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>14</v>
       </c>
@@ -19378,7 +20326,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>14</v>
       </c>
@@ -19443,7 +20391,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>14</v>
       </c>
@@ -19508,7 +20456,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>14</v>
       </c>
@@ -19573,7 +20521,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>14</v>
       </c>
@@ -19638,7 +20586,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>14</v>
       </c>
@@ -19703,7 +20651,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>14</v>
       </c>
@@ -19768,7 +20716,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>14</v>
       </c>
@@ -19833,7 +20781,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>14</v>
       </c>
@@ -19898,7 +20846,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>14</v>
       </c>
@@ -19963,7 +20911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>15</v>
       </c>
@@ -20028,7 +20976,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>15</v>
       </c>
@@ -20093,7 +21041,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>15</v>
       </c>
@@ -20158,7 +21106,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>15</v>
       </c>
@@ -20223,7 +21171,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>15</v>
       </c>
@@ -20288,7 +21236,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>15</v>
       </c>
@@ -20353,7 +21301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>15</v>
       </c>
@@ -20418,7 +21366,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>15</v>
       </c>
@@ -20483,7 +21431,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>16</v>
       </c>
@@ -20548,7 +21496,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>16</v>
       </c>
@@ -20613,7 +21561,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>16</v>
       </c>
@@ -20678,7 +21626,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>16</v>
       </c>
@@ -20743,7 +21691,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>16</v>
       </c>
@@ -20808,7 +21756,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>16</v>
       </c>
@@ -20873,7 +21821,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>16</v>
       </c>
@@ -20938,7 +21886,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>16</v>
       </c>
@@ -21003,7 +21951,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>16</v>
       </c>
@@ -21068,7 +22016,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>16</v>
       </c>
@@ -21133,7 +22081,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>16</v>
       </c>
@@ -21198,7 +22146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>16</v>
       </c>
@@ -21263,7 +22211,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>16</v>
       </c>
@@ -21328,7 +22276,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>16</v>
       </c>
@@ -21393,7 +22341,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>16</v>
       </c>
@@ -21458,7 +22406,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>16</v>
       </c>
@@ -21523,7 +22471,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>16</v>
       </c>
@@ -21588,7 +22536,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>17</v>
       </c>
@@ -21653,7 +22601,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>17</v>
       </c>
@@ -21718,7 +22666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>17</v>
       </c>
@@ -21783,7 +22731,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>17</v>
       </c>
@@ -21848,7 +22796,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>17</v>
       </c>
@@ -21913,7 +22861,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>17</v>
       </c>
@@ -21978,7 +22926,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>17</v>
       </c>
@@ -22043,7 +22991,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>17</v>
       </c>
@@ -22108,7 +23056,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>17</v>
       </c>
@@ -22173,7 +23121,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>17</v>
       </c>
@@ -22238,7 +23186,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>17</v>
       </c>
@@ -22303,7 +23251,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>17</v>
       </c>
@@ -22368,7 +23316,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>17</v>
       </c>
@@ -22433,7 +23381,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>17</v>
       </c>
@@ -22498,7 +23446,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>18</v>
       </c>
@@ -22563,7 +23511,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>18</v>
       </c>
@@ -22628,7 +23576,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>18</v>
       </c>
@@ -22693,7 +23641,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>18</v>
       </c>
@@ -22758,7 +23706,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>18</v>
       </c>
@@ -22823,7 +23771,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>19</v>
       </c>
@@ -22888,7 +23836,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>19</v>
       </c>
@@ -22953,7 +23901,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>19</v>
       </c>
@@ -23018,7 +23966,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>19</v>
       </c>
@@ -23083,7 +24031,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>19</v>
       </c>
@@ -23148,7 +24096,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>19</v>
       </c>
@@ -23213,7 +24161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>19</v>
       </c>
@@ -23278,7 +24226,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>19</v>
       </c>
@@ -23343,7 +24291,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>19</v>
       </c>
@@ -23408,7 +24356,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>19</v>
       </c>
@@ -23473,7 +24421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>19</v>
       </c>
@@ -23538,7 +24486,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>20</v>
       </c>
@@ -23603,7 +24551,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>20</v>
       </c>
@@ -23668,7 +24616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>20</v>
       </c>
@@ -23733,7 +24681,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>20</v>
       </c>
@@ -23798,7 +24746,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>20</v>
       </c>
@@ -23863,7 +24811,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>20</v>
       </c>
@@ -23928,7 +24876,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>20</v>
       </c>
@@ -23993,7 +24941,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>20</v>
       </c>
@@ -24058,7 +25006,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>20</v>
       </c>
@@ -24123,7 +25071,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>20</v>
       </c>
@@ -24188,7 +25136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>20</v>
       </c>
@@ -24253,7 +25201,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>21</v>
       </c>
@@ -24318,7 +25266,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>21</v>
       </c>
@@ -24383,7 +25331,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>21</v>
       </c>
@@ -24448,7 +25396,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>21</v>
       </c>
@@ -24513,7 +25461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>21</v>
       </c>
@@ -24578,7 +25526,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>21</v>
       </c>
@@ -24643,7 +25591,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>21</v>
       </c>
@@ -24708,7 +25656,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>22</v>
       </c>
@@ -24773,7 +25721,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>22</v>
       </c>
@@ -24838,7 +25786,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>22</v>
       </c>
@@ -24903,7 +25851,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>22</v>
       </c>
@@ -24968,7 +25916,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>22</v>
       </c>
@@ -25033,7 +25981,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>22</v>
       </c>
@@ -25098,7 +26046,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>22</v>
       </c>
@@ -25163,7 +26111,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>22</v>
       </c>
@@ -25228,7 +26176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>22</v>
       </c>
@@ -25293,7 +26241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>22</v>
       </c>
@@ -25358,7 +26306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>22</v>
       </c>
@@ -25423,7 +26371,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>22</v>
       </c>
@@ -25488,7 +26436,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>22</v>
       </c>
@@ -25553,7 +26501,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>22</v>
       </c>
@@ -25618,7 +26566,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>22</v>
       </c>
@@ -25683,7 +26631,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>22</v>
       </c>
@@ -25748,72 +26696,72 @@
         <v>246</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A348" s="19">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A348" s="80">
         <v>22</v>
       </c>
-      <c r="B348" s="20" t="s">
+      <c r="B348" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C348" s="33">
+      <c r="C348" s="82">
         <v>2217</v>
       </c>
-      <c r="D348" s="34" t="s">
+      <c r="D348" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="E348" s="35">
+      <c r="E348" s="83">
         <v>15809</v>
       </c>
-      <c r="F348" s="35">
+      <c r="F348" s="83">
         <v>7566</v>
       </c>
-      <c r="G348" s="35">
+      <c r="G348" s="83">
         <v>7381</v>
       </c>
-      <c r="H348" s="35">
+      <c r="H348" s="83">
         <v>74</v>
       </c>
-      <c r="I348" s="35">
+      <c r="I348" s="83">
         <v>111</v>
       </c>
-      <c r="J348" s="35">
+      <c r="J348" s="83">
         <v>8243</v>
       </c>
-      <c r="K348" s="35">
+      <c r="K348" s="83">
         <v>1397</v>
       </c>
-      <c r="L348" s="35">
+      <c r="L348" s="83">
         <v>183</v>
       </c>
-      <c r="M348" s="35">
+      <c r="M348" s="83">
         <v>5556</v>
       </c>
-      <c r="N348" s="35">
+      <c r="N348" s="83">
         <v>48</v>
       </c>
-      <c r="O348" s="35">
+      <c r="O348" s="83">
         <v>19</v>
       </c>
-      <c r="P348" s="35">
+      <c r="P348" s="83">
         <v>993</v>
       </c>
-      <c r="Q348" s="35">
+      <c r="Q348" s="83">
         <v>47</v>
       </c>
-      <c r="R348" s="35">
+      <c r="R348" s="83">
         <v>5899</v>
       </c>
-      <c r="S348" s="35">
+      <c r="S348" s="83">
         <v>1145</v>
       </c>
-      <c r="T348" s="35">
+      <c r="T348" s="83">
         <v>7</v>
       </c>
-      <c r="U348" s="35">
+      <c r="U348" s="83">
         <v>404</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" s="24" t="s">
         <v>48</v>
       </c>
@@ -25821,32 +26769,6 @@
       <c r="D349" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R5:U6"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="5" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -25854,5 +26776,8 @@
 Censo Nacional XII de Población y VII de Vivienda&amp;R&amp;G</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>